--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_19-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_19-22.xlsx
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
+    <t>كريم براشوت</t>
   </si>
   <si>
     <t>ماء اكسجين 20</t>
@@ -3329,7 +3332,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3349,13 +3352,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3375,7 +3378,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -3401,17 +3404,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3427,51 +3430,77 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
-      <c r="K98" s="10">
-        <v>4667.0200000000004</v>
-      </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-    </row>
-    <row r="99" ht="17.25" customHeight="1">
-      <c t="s" r="A99" s="11">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
+        <v>135</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
         <v>136</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c t="s" r="F99" s="12">
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>20</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="K99" s="10">
+        <v>4712.0200000000004</v>
+      </c>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="11">
         <v>137</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c t="s" r="I99" s="14">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c t="s" r="F100" s="12">
         <v>138</v>
       </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="13"/>
+      <c t="s" r="I100" s="14">
+        <v>139</v>
+      </c>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="293">
+  <mergeCells count="296">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3761,10 +3790,13 @@
     <mergeCell ref="B97:G97"/>
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:N99"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="I100:N100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
